--- a/download/bulkUserCredentialForImageViewerLowPriExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerLowPriExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>URWpD674</t>
-  </si>
-  <si>
-    <t>dquwzpx93</t>
-  </si>
-  <si>
-    <t>AM!j$6w5</t>
+    <t>tvRLp178</t>
+  </si>
+  <si>
+    <t>apnepta24</t>
+  </si>
+  <si>
+    <t>PdA#&amp;t85</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>hnhwTiVw</t>
-  </si>
-  <si>
-    <t>cDtg</t>
+    <t>QUyhbEkU</t>
+  </si>
+  <si>
+    <t>rTGo</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>JUNzx491</t>
-  </si>
-  <si>
-    <t>ojlgjzu53</t>
-  </si>
-  <si>
-    <t>b6dY%4U$</t>
-  </si>
-  <si>
-    <t>RLBqYUNo</t>
-  </si>
-  <si>
-    <t>Gczo</t>
+    <t>XOZje301</t>
+  </si>
+  <si>
+    <t>ricoxtw23</t>
+  </si>
+  <si>
+    <t>N9!a3x$X</t>
+  </si>
+  <si>
+    <t>yJSTInBU</t>
+  </si>
+  <si>
+    <t>iuCY</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004199</v>
+        <v>231006267</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004198</v>
+        <v>231006266</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForImageViewerLowPriExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerLowPriExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>tvRLp178</t>
-  </si>
-  <si>
-    <t>apnepta24</t>
-  </si>
-  <si>
-    <t>PdA#&amp;t85</t>
+    <t>URWpD674</t>
+  </si>
+  <si>
+    <t>dquwzpx93</t>
+  </si>
+  <si>
+    <t>AM!j$6w5</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>QUyhbEkU</t>
-  </si>
-  <si>
-    <t>rTGo</t>
+    <t>hnhwTiVw</t>
+  </si>
+  <si>
+    <t>cDtg</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>XOZje301</t>
-  </si>
-  <si>
-    <t>ricoxtw23</t>
-  </si>
-  <si>
-    <t>N9!a3x$X</t>
-  </si>
-  <si>
-    <t>yJSTInBU</t>
-  </si>
-  <si>
-    <t>iuCY</t>
+    <t>JUNzx491</t>
+  </si>
+  <si>
+    <t>ojlgjzu53</t>
+  </si>
+  <si>
+    <t>b6dY%4U$</t>
+  </si>
+  <si>
+    <t>RLBqYUNo</t>
+  </si>
+  <si>
+    <t>Gczo</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006267</v>
+        <v>231004199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006266</v>
+        <v>231004198</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulkUserCredentialForImageViewerLowPriExam.xlsx
+++ b/download/bulkUserCredentialForImageViewerLowPriExam.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>URWpD674</t>
-  </si>
-  <si>
-    <t>dquwzpx93</t>
-  </si>
-  <si>
-    <t>AM!j$6w5</t>
+    <t>jdIYv823</t>
+  </si>
+  <si>
+    <t>lykndww37</t>
+  </si>
+  <si>
+    <t>JS!f5g9&amp;</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>hnhwTiVw</t>
-  </si>
-  <si>
-    <t>cDtg</t>
+    <t>PYaMUbVo</t>
+  </si>
+  <si>
+    <t>qSxD</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>JUNzx491</t>
-  </si>
-  <si>
-    <t>ojlgjzu53</t>
-  </si>
-  <si>
-    <t>b6dY%4U$</t>
-  </si>
-  <si>
-    <t>RLBqYUNo</t>
-  </si>
-  <si>
-    <t>Gczo</t>
+    <t>SxZgA746</t>
+  </si>
+  <si>
+    <t>fxsbida85</t>
+  </si>
+  <si>
+    <t>E3!&amp;9avU</t>
+  </si>
+  <si>
+    <t>ekZKVDaf</t>
+  </si>
+  <si>
+    <t>JxDn</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004199</v>
+        <v>231011128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004198</v>
+        <v>231011127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
